--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_EXPORT_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_EXPORT_AVERAGE_1_9.xlsx
@@ -2368,7 +2368,7 @@
         <v>-4.477718018907028</v>
       </c>
       <c r="AG17">
-        <v>-9.810777096850787</v>
+        <v>-16.12838793350732</v>
       </c>
       <c r="AH17">
         <v>-8.784173899737169</v>
@@ -2451,19 +2451,19 @@
         <v>-11.83522404790002</v>
       </c>
       <c r="AG18">
-        <v>29.96709940045137</v>
+        <v>-57.14802790903944</v>
       </c>
       <c r="AH18">
-        <v>6.942816049735523</v>
+        <v>53.94004854052488</v>
       </c>
       <c r="AI18">
-        <v>7.026336004273714</v>
+        <v>11.48742096710476</v>
       </c>
       <c r="AJ18">
-        <v>6.317691071509768</v>
+        <v>6.928818429977701</v>
       </c>
       <c r="AK18">
-        <v>5.797134106720514</v>
+        <v>5.555562147330262</v>
       </c>
       <c r="AL18">
         <v>5.110501195359984</v>
@@ -2522,31 +2522,31 @@
         <v>-11.83522404790001</v>
       </c>
       <c r="AG19">
-        <v>59.7568185818558</v>
+        <v>-59.72441940335441</v>
       </c>
       <c r="AH19">
-        <v>11.73656340129252</v>
+        <v>94.81620019601078</v>
       </c>
       <c r="AI19">
-        <v>7.425901647531985</v>
+        <v>19.4553817824848</v>
       </c>
       <c r="AJ19">
-        <v>4.613033063261129</v>
+        <v>7.603837152144077</v>
       </c>
       <c r="AK19">
-        <v>5.455672087096408</v>
+        <v>2.400799203920689</v>
       </c>
       <c r="AL19">
-        <v>0.8094958705429534</v>
+        <v>-2.541600728425897</v>
       </c>
       <c r="AM19">
-        <v>2.670821531651923</v>
+        <v>13.67762247606108</v>
       </c>
       <c r="AN19">
-        <v>3.79744344971964</v>
+        <v>1.316649728677288</v>
       </c>
       <c r="AO19">
-        <v>4.232564748995715</v>
+        <v>4.27366463517076</v>
       </c>
       <c r="AP19">
         <v>5.120680133083599</v>
@@ -2589,38 +2589,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>7.425901647531985</v>
-      </c>
       <c r="AJ20">
-        <v>4.420587679796406</v>
+        <v>7.603837152144099</v>
       </c>
       <c r="AK20">
-        <v>5.930628634551405</v>
+        <v>2.176709127206511</v>
       </c>
       <c r="AL20">
-        <v>1.482699481566874</v>
+        <v>-3.868844303495711</v>
       </c>
       <c r="AM20">
-        <v>-7.844778655777695</v>
+        <v>20.55431402884298</v>
       </c>
       <c r="AN20">
-        <v>3.703837953294542</v>
+        <v>-8.227322176512519</v>
       </c>
       <c r="AO20">
-        <v>0.3861805562020093</v>
+        <v>0.9017139833962018</v>
       </c>
       <c r="AP20">
-        <v>0.5542886326586061</v>
+        <v>6.76879177976033</v>
       </c>
       <c r="AQ20">
-        <v>-0.2545313393182314</v>
+        <v>-0.7317253369667265</v>
       </c>
       <c r="AR20">
-        <v>0.4998689793225486</v>
+        <v>0.8562564928550565</v>
       </c>
       <c r="AS20">
-        <v>0.08070151925247959</v>
+        <v>-0.2799943257218107</v>
       </c>
       <c r="AT20">
         <v>-0.5532735011319234</v>
@@ -2651,38 +2648,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>-7.844778655777695</v>
-      </c>
       <c r="AN21">
-        <v>4.548240976923057</v>
+        <v>-8.227322176512509</v>
       </c>
       <c r="AO21">
-        <v>0.5168327509611048</v>
+        <v>1.152088253443107</v>
       </c>
       <c r="AP21">
-        <v>-1.693051682638458</v>
+        <v>8.167007669465587</v>
       </c>
       <c r="AQ21">
-        <v>-2.527634545037938</v>
+        <v>-3.774469028318772</v>
       </c>
       <c r="AR21">
-        <v>-0.08221002454066317</v>
+        <v>1.69719863895359</v>
       </c>
       <c r="AS21">
-        <v>0.7505831475431046</v>
+        <v>-3.897546227660642</v>
       </c>
       <c r="AT21">
-        <v>-3.561435976944571</v>
+        <v>-2.911323063974547</v>
       </c>
       <c r="AU21">
-        <v>-2.978154922642562</v>
+        <v>-4.911273445035647</v>
       </c>
       <c r="AV21">
-        <v>0.1967053802870877</v>
+        <v>-0.1644433828108749</v>
       </c>
       <c r="AW21">
-        <v>-0.9685570952743805</v>
+        <v>-0.9443791826375447</v>
       </c>
       <c r="AX21">
         <v>-1.069674659641462</v>
@@ -2701,78 +2695,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>-2.527634545037949</v>
-      </c>
       <c r="AR22">
-        <v>-0.1995970130352687</v>
+        <v>1.69719863895359</v>
       </c>
       <c r="AS22">
-        <v>1.472960679536528</v>
+        <v>-4.262495551619228</v>
       </c>
       <c r="AT22">
-        <v>-4.033201999140712</v>
+        <v>-2.991335045135557</v>
       </c>
       <c r="AU22">
-        <v>-1.015253537920036</v>
+        <v>-6.226959158104961</v>
       </c>
       <c r="AV22">
-        <v>6.289039804796182</v>
+        <v>4.412091139052166</v>
       </c>
       <c r="AW22">
-        <v>-0.5620920786801986</v>
+        <v>-0.2465826728646037</v>
       </c>
       <c r="AX22">
-        <v>0.01743232028155184</v>
+        <v>-5.499724587330523</v>
       </c>
       <c r="AY22">
-        <v>-4.169154013177412</v>
+        <v>-6.370988076954709</v>
       </c>
       <c r="AZ22">
-        <v>-2.056549539789942</v>
+        <v>0.602228449891351</v>
       </c>
       <c r="BA22">
-        <v>-2.436529450546909</v>
+        <v>-2.462305621777361</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>-1.015253537920036</v>
-      </c>
       <c r="AV23">
-        <v>6.412477281732909</v>
+        <v>4.412091139052166</v>
       </c>
       <c r="AW23">
-        <v>-0.9865510783895082</v>
+        <v>-0.5994234191810222</v>
       </c>
       <c r="AX23">
-        <v>1.555815766524016</v>
+        <v>-7.289790362399041</v>
       </c>
       <c r="AY23">
-        <v>-2.751196593554839</v>
+        <v>-8.666940084126063</v>
       </c>
       <c r="AZ23">
-        <v>-0.3884660724497446</v>
+        <v>13.57938250040038</v>
       </c>
       <c r="BA23">
-        <v>0.4756432387424292</v>
+        <v>0.1329973408891849</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>-2.751196593554861</v>
-      </c>
       <c r="AZ24">
-        <v>-1.248391213082523</v>
+        <v>13.57938250040036</v>
       </c>
       <c r="BA24">
-        <v>-0.08440275103183126</v>
+        <v>-0.5038811296323331</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_EXPORT_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_EXPORT_AVERAGE_1_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2233 +535,1906 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="B3">
+        <v>12.7848349631196</v>
+      </c>
+      <c r="C3">
+        <v>10.06916370210016</v>
+      </c>
+      <c r="D3">
+        <v>-0.7156496512470745</v>
+      </c>
+      <c r="E3">
+        <v>-20.40984652067477</v>
+      </c>
+      <c r="F3">
+        <v>-14.45332333832744</v>
+      </c>
+      <c r="G3">
+        <v>-14.35891259563729</v>
+      </c>
+      <c r="H3">
+        <v>-14.19945931766765</v>
+      </c>
+      <c r="I3">
+        <v>-14.32540669406603</v>
+      </c>
+      <c r="J3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="K3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="L3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="M3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="N3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="O3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="P3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="Q3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="R3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="S3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="T3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="U3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="V3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="W3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="X3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="Y3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="Z3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AA3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AB3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AC3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AD3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AE3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AF3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AG3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AH3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AI3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AJ3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AK3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AL3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AM3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AN3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AO3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AP3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AQ3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AR3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AS3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AT3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AU3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AV3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AW3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AX3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AY3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="AZ3">
+        <v>-14.1223525803845</v>
+      </c>
+      <c r="BA3">
+        <v>-14.1223525803845</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>11.13090654781819</v>
+        <v>40543</v>
       </c>
       <c r="C4">
-        <v>10.9539390552386</v>
+        <v>10.06916370210009</v>
       </c>
       <c r="D4">
-        <v>11.07868559841723</v>
+        <v>-1.486815994741952</v>
       </c>
       <c r="E4">
-        <v>11.07868559841723</v>
+        <v>-33.45158075171639</v>
       </c>
       <c r="F4">
-        <v>10.85021834978603</v>
+        <v>7.857938327064207</v>
       </c>
       <c r="G4">
-        <v>10.85021834978603</v>
+        <v>5.331710924091815</v>
       </c>
       <c r="H4">
-        <v>10.85021834978603</v>
+        <v>8.600536527919612</v>
       </c>
       <c r="I4">
-        <v>10.85021834978603</v>
+        <v>8.726337206847944</v>
       </c>
       <c r="J4">
-        <v>10.85021834978603</v>
+        <v>7.955274439957338</v>
       </c>
       <c r="K4">
-        <v>10.85021834978603</v>
+        <v>7.955274439957338</v>
       </c>
       <c r="L4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="M4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="N4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="O4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="P4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="Q4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="R4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="S4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="T4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="U4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="V4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="W4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="X4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="Y4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="Z4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AA4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AB4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AC4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AD4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AE4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AF4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AG4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AH4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AI4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AJ4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AK4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AL4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AM4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AN4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AO4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AP4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AQ4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AR4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AS4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AT4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AU4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AV4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AW4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AX4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AY4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="AZ4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
       <c r="BA4">
-        <v>10.85021834978603</v>
+        <v>7.235571181590705</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B5">
-        <v>10.67037004222142</v>
-      </c>
-      <c r="C5">
-        <v>7.288845540350142</v>
-      </c>
-      <c r="D5">
-        <v>4.672550446571067</v>
+        <v>40908</v>
       </c>
       <c r="E5">
-        <v>4.684463748392487</v>
+        <v>-33.45158075171639</v>
       </c>
       <c r="F5">
-        <v>4.884527764493152</v>
+        <v>14.20578233825987</v>
       </c>
       <c r="G5">
-        <v>4.884527764493152</v>
+        <v>10.84949786623359</v>
       </c>
       <c r="H5">
-        <v>4.48949050823837</v>
+        <v>12.64892828543749</v>
       </c>
       <c r="I5">
-        <v>4.48949050823837</v>
+        <v>11.04982736891555</v>
       </c>
       <c r="J5">
-        <v>4.48949050823837</v>
+        <v>10.25770250047622</v>
       </c>
       <c r="K5">
-        <v>4.48949050823837</v>
+        <v>10.39929827784976</v>
       </c>
       <c r="L5">
-        <v>4.48949050823837</v>
+        <v>10.03764224178227</v>
       </c>
       <c r="M5">
-        <v>4.48949050823837</v>
+        <v>10.03764224178227</v>
       </c>
       <c r="N5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="O5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="P5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="Q5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="R5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="S5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="T5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="U5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="V5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="W5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="X5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="Y5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="Z5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AA5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AB5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AC5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AD5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AE5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AF5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AG5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AH5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AI5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AJ5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AK5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AL5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AM5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AN5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AO5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AP5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AQ5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AR5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AS5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AT5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AU5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AV5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AW5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AX5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AY5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="AZ5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
       <c r="BA5">
-        <v>4.48949050823837</v>
+        <v>9.488155060723313</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="B6">
-        <v>12.7848349631196</v>
-      </c>
-      <c r="C6">
-        <v>10.06916370210014</v>
-      </c>
-      <c r="D6">
-        <v>-0.7156496512470745</v>
-      </c>
-      <c r="E6">
-        <v>-20.40984652067478</v>
-      </c>
-      <c r="F6">
-        <v>-14.45332333832743</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>-14.35891259563729</v>
+        <v>10.84949786623359</v>
       </c>
       <c r="H6">
-        <v>-14.19945931766767</v>
+        <v>9.638529534578799</v>
       </c>
       <c r="I6">
-        <v>-14.32540669406604</v>
+        <v>9.5899211611429</v>
       </c>
       <c r="J6">
-        <v>-14.1223525803845</v>
+        <v>10.40099841437159</v>
       </c>
       <c r="K6">
-        <v>-14.1223525803845</v>
+        <v>4.748210439985256</v>
       </c>
       <c r="L6">
-        <v>-14.1223525803845</v>
+        <v>4.639893381363192</v>
       </c>
       <c r="M6">
-        <v>-14.1223525803845</v>
+        <v>4.889327527458143</v>
       </c>
       <c r="N6">
-        <v>-14.1223525803845</v>
+        <v>4.491772175554365</v>
       </c>
       <c r="O6">
-        <v>-14.1223525803845</v>
+        <v>4.491772175554365</v>
       </c>
       <c r="P6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="Q6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="R6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="S6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="T6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="U6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="V6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="W6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="X6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="Y6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="Z6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AA6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AB6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AC6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AD6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AE6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AF6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AG6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AH6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AI6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AJ6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AK6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AL6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AM6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AN6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AO6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AP6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AQ6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AR6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AS6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AT6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AU6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AV6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AW6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AX6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AY6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="AZ6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
       <c r="BA6">
-        <v>-14.1223525803845</v>
+        <v>4.445724792911898</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="C7">
-        <v>10.06916370210011</v>
-      </c>
-      <c r="D7">
-        <v>-1.486815994741952</v>
-      </c>
-      <c r="E7">
-        <v>-33.45158075171641</v>
-      </c>
-      <c r="F7">
-        <v>7.857938327064184</v>
-      </c>
-      <c r="G7">
-        <v>5.331710924091837</v>
-      </c>
-      <c r="H7">
-        <v>8.600536527919633</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>8.726337206847944</v>
+        <v>9.589921161142879</v>
       </c>
       <c r="J7">
-        <v>7.955274439957316</v>
+        <v>10.51311647388602</v>
       </c>
       <c r="K7">
-        <v>7.955274439957316</v>
+        <v>7.086193663491014</v>
       </c>
       <c r="L7">
-        <v>7.235571181590661</v>
+        <v>6.662398279632087</v>
       </c>
       <c r="M7">
-        <v>7.235571181590661</v>
+        <v>-2.313034291448768</v>
       </c>
       <c r="N7">
-        <v>7.235571181590661</v>
+        <v>0.3058963467304165</v>
       </c>
       <c r="O7">
-        <v>7.235571181590661</v>
+        <v>0.540318794409167</v>
       </c>
       <c r="P7">
-        <v>7.235571181590661</v>
+        <v>1.052434495141896</v>
       </c>
       <c r="Q7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="R7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="S7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="T7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="U7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="V7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="W7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="X7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="Y7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="Z7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AA7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AB7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AC7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AD7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AE7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AF7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AG7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AH7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AI7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AJ7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AK7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AL7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AM7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AN7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AO7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AP7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AQ7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AR7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AS7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AT7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AU7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AV7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AW7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AX7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AY7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="AZ7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
       <c r="BA7">
-        <v>7.235571181590661</v>
+        <v>1.101453765199745</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="E8">
-        <v>-33.45158075171641</v>
-      </c>
-      <c r="F8">
-        <v>14.20578233825987</v>
-      </c>
-      <c r="G8">
-        <v>10.84949786623359</v>
-      </c>
-      <c r="H8">
-        <v>12.64892828543749</v>
-      </c>
-      <c r="I8">
-        <v>11.04982736891558</v>
-      </c>
-      <c r="J8">
-        <v>10.25770250047622</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>10.39929827784976</v>
+        <v>7.086193663491014</v>
       </c>
       <c r="L8">
-        <v>10.03764224178227</v>
+        <v>5.914814470066831</v>
       </c>
       <c r="M8">
-        <v>10.03764224178227</v>
+        <v>-7.020874871669158</v>
       </c>
       <c r="N8">
-        <v>9.488155060723313</v>
+        <v>1.195213983078647</v>
       </c>
       <c r="O8">
-        <v>9.488155060723313</v>
+        <v>3.711391384148</v>
       </c>
       <c r="P8">
-        <v>9.488155060723313</v>
+        <v>4.068173739091874</v>
       </c>
       <c r="Q8">
-        <v>9.488155060723313</v>
+        <v>3.914674283662856</v>
       </c>
       <c r="R8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="S8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="T8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="U8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="V8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="W8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="X8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="Y8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="Z8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AA8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AB8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AC8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AD8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AE8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AF8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AG8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AH8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AI8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AJ8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AK8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AL8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AM8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AN8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AO8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AP8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AQ8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AR8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AS8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AT8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AU8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AV8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AW8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AX8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AY8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="AZ8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
       <c r="BA8">
-        <v>9.488155060723313</v>
+        <v>3.917168917088798</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>10.84949786623355</v>
-      </c>
-      <c r="H9">
-        <v>9.638529534578799</v>
-      </c>
-      <c r="I9">
-        <v>9.589921161142879</v>
-      </c>
-      <c r="J9">
-        <v>10.40099841437159</v>
-      </c>
-      <c r="K9">
-        <v>4.748210439985256</v>
-      </c>
-      <c r="L9">
-        <v>4.639893381363169</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>4.889327527458143</v>
+        <v>-7.020874871669158</v>
       </c>
       <c r="N9">
-        <v>4.491772175554365</v>
+        <v>0.3109211561829861</v>
       </c>
       <c r="O9">
-        <v>4.491772175554365</v>
+        <v>0.6610955960690834</v>
       </c>
       <c r="P9">
-        <v>4.445724792911876</v>
+        <v>7.055025120039615</v>
       </c>
       <c r="Q9">
-        <v>4.445724792911876</v>
+        <v>3.860244074450203</v>
       </c>
       <c r="R9">
-        <v>4.445724792911876</v>
+        <v>4.984288257750213</v>
       </c>
       <c r="S9">
-        <v>4.445724792911876</v>
+        <v>5.031290904074326</v>
       </c>
       <c r="T9">
-        <v>4.445724792911876</v>
+        <v>4.40687039585641</v>
       </c>
       <c r="U9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="V9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="W9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="X9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="Y9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="Z9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AA9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AB9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AC9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AD9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AE9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AF9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AG9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AH9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AI9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AJ9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AK9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AL9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AM9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AN9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AO9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AP9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AQ9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AR9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AS9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AT9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AU9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AV9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AW9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AX9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AY9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="AZ9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
       <c r="BA9">
-        <v>4.445724792911876</v>
+        <v>4.449305425651406</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>9.589921161142879</v>
-      </c>
-      <c r="J10">
-        <v>10.51311647388602</v>
-      </c>
-      <c r="K10">
-        <v>7.086193663490992</v>
-      </c>
-      <c r="L10">
-        <v>6.662398279632087</v>
-      </c>
-      <c r="M10">
-        <v>-2.313034291448757</v>
-      </c>
-      <c r="N10">
-        <v>0.3058963467304165</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>0.540318794409167</v>
+        <v>0.6610955960691056</v>
       </c>
       <c r="P10">
-        <v>1.052434495141918</v>
+        <v>8.018404887689346</v>
       </c>
       <c r="Q10">
-        <v>1.101453765199745</v>
+        <v>3.254220449867051</v>
       </c>
       <c r="R10">
-        <v>1.101453765199745</v>
+        <v>1.985659800779915</v>
       </c>
       <c r="S10">
-        <v>1.101453765199745</v>
+        <v>2.370939381494686</v>
       </c>
       <c r="T10">
-        <v>1.101453765199745</v>
+        <v>1.878184267712912</v>
       </c>
       <c r="U10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="V10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="W10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="X10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="Y10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="Z10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AA10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AB10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AC10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AD10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AE10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AF10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AG10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AH10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AI10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AJ10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AK10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AL10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AM10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AN10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AO10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AP10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AQ10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AR10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AS10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AT10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AU10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AV10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AW10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AX10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AY10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="AZ10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
       <c r="BA10">
-        <v>1.101453765199745</v>
+        <v>1.92981802270098</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>7.086193663491014</v>
-      </c>
-      <c r="L11">
-        <v>5.914814470066854</v>
-      </c>
-      <c r="M11">
-        <v>-7.020874871669158</v>
-      </c>
-      <c r="N11">
-        <v>1.195213983078647</v>
-      </c>
-      <c r="O11">
-        <v>3.711391384148</v>
-      </c>
-      <c r="P11">
-        <v>4.068173739091874</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>3.914674283662856</v>
+        <v>3.254220449867029</v>
       </c>
       <c r="R11">
-        <v>3.917168917088798</v>
+        <v>0.8728481908959029</v>
       </c>
       <c r="S11">
-        <v>3.917168917088798</v>
+        <v>3.967543131851214</v>
       </c>
       <c r="T11">
-        <v>3.917168917088798</v>
+        <v>-0.3562142672005275</v>
       </c>
       <c r="U11">
-        <v>3.917168917088798</v>
+        <v>4.421855465610269</v>
       </c>
       <c r="V11">
-        <v>3.917168917088798</v>
+        <v>4.695933104194361</v>
       </c>
       <c r="W11">
-        <v>3.917168917088798</v>
+        <v>4.709396002486788</v>
       </c>
       <c r="X11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="Y11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="Z11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AA11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AB11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AC11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AD11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AE11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AF11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AG11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AH11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AI11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AJ11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AK11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AL11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AM11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AN11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AO11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AP11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AQ11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AR11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AS11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AT11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AU11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AV11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AW11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AX11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AY11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="AZ11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
       <c r="BA11">
-        <v>3.917168917088798</v>
+        <v>4.693514706708668</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>-7.02087487166918</v>
-      </c>
-      <c r="N12">
-        <v>0.3109211561829639</v>
-      </c>
-      <c r="O12">
-        <v>0.6610955960690834</v>
-      </c>
-      <c r="P12">
-        <v>7.055025120039615</v>
-      </c>
-      <c r="Q12">
-        <v>3.860244074450181</v>
-      </c>
-      <c r="R12">
-        <v>4.984288257750213</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>5.031290904074348</v>
+        <v>3.967543131851214</v>
       </c>
       <c r="T12">
-        <v>4.406870395856433</v>
+        <v>-1.597924604640233</v>
       </c>
       <c r="U12">
-        <v>4.449305425651406</v>
+        <v>5.26036486209962</v>
       </c>
       <c r="V12">
-        <v>4.449305425651406</v>
+        <v>6.493919935864612</v>
       </c>
       <c r="W12">
-        <v>4.449305425651406</v>
+        <v>9.429264335267163</v>
       </c>
       <c r="X12">
-        <v>4.449305425651406</v>
+        <v>3.320585727896574</v>
       </c>
       <c r="Y12">
-        <v>4.449305425651406</v>
+        <v>5.276665321936491</v>
       </c>
       <c r="Z12">
-        <v>4.449305425651406</v>
+        <v>4.892602738886098</v>
       </c>
       <c r="AA12">
-        <v>4.449305425651406</v>
+        <v>4.957105241469595</v>
       </c>
       <c r="AB12">
-        <v>4.449305425651406</v>
+        <v>4.971495141117499</v>
       </c>
       <c r="AC12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AD12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AE12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AF12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AG12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AH12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AI12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AJ12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AK12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AL12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AM12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AN12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AO12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AP12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AQ12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AR12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AS12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AT12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AU12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AV12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AW12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AX12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AY12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="AZ12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
       <c r="BA12">
-        <v>4.449305425651406</v>
+        <v>4.873158811425493</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>0.6610955960690834</v>
-      </c>
-      <c r="P13">
-        <v>8.018404887689346</v>
-      </c>
-      <c r="Q13">
-        <v>3.254220449867029</v>
-      </c>
-      <c r="R13">
-        <v>1.985659800779893</v>
-      </c>
-      <c r="S13">
-        <v>2.370939381494686</v>
-      </c>
-      <c r="T13">
-        <v>1.878184267712912</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>1.929818022700958</v>
+        <v>5.26036486209962</v>
       </c>
       <c r="V13">
-        <v>1.929818022700958</v>
+        <v>6.807191759470932</v>
       </c>
       <c r="W13">
-        <v>1.929818022700958</v>
+        <v>11.40563592910599</v>
       </c>
       <c r="X13">
-        <v>1.929818022700958</v>
+        <v>-4.09821347263859</v>
       </c>
       <c r="Y13">
-        <v>1.929818022700958</v>
+        <v>2.513980370944258</v>
       </c>
       <c r="Z13">
-        <v>1.929818022700958</v>
+        <v>-2.576675125869599</v>
       </c>
       <c r="AA13">
-        <v>1.929818022700958</v>
+        <v>1.320842979722947</v>
       </c>
       <c r="AB13">
-        <v>1.929818022700958</v>
+        <v>1.782333336406383</v>
       </c>
       <c r="AC13">
-        <v>1.929818022700958</v>
+        <v>0.3252781783188441</v>
       </c>
       <c r="AD13">
-        <v>1.929818022700958</v>
+        <v>0.8049382522247184</v>
       </c>
       <c r="AE13">
-        <v>1.929818022700958</v>
+        <v>0.7248455917398866</v>
       </c>
       <c r="AF13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AG13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AH13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AI13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AJ13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AK13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AL13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AM13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AN13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AO13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AP13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AQ13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AR13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AS13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AT13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AU13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AV13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AW13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AX13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AY13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="AZ13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
       <c r="BA13">
-        <v>1.929818022700958</v>
+        <v>0.862099696137153</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>3.254220449867029</v>
-      </c>
-      <c r="R14">
-        <v>0.8728481908959251</v>
-      </c>
-      <c r="S14">
-        <v>3.967543131851214</v>
-      </c>
-      <c r="T14">
-        <v>-0.3562142672005275</v>
-      </c>
-      <c r="U14">
-        <v>4.421855465610292</v>
-      </c>
-      <c r="V14">
-        <v>4.695933104194339</v>
-      </c>
-      <c r="W14">
-        <v>4.70939600248681</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>4.693514706708668</v>
+        <v>-4.098213472638578</v>
       </c>
       <c r="Y14">
-        <v>4.693514706708668</v>
+        <v>2.754263941470536</v>
       </c>
       <c r="Z14">
-        <v>4.693514706708668</v>
+        <v>-3.55169094390001</v>
       </c>
       <c r="AA14">
-        <v>4.693514706708668</v>
+        <v>2.636028935395318</v>
       </c>
       <c r="AB14">
-        <v>4.693514706708668</v>
+        <v>4.060401000000002</v>
       </c>
       <c r="AC14">
-        <v>4.693514706708668</v>
+        <v>-4.518236404743526</v>
       </c>
       <c r="AD14">
-        <v>4.693514706708668</v>
+        <v>3.191985284262278</v>
       </c>
       <c r="AE14">
-        <v>4.693514706708668</v>
+        <v>-0.1289008616491394</v>
       </c>
       <c r="AF14">
-        <v>4.693514706708668</v>
+        <v>-4.477718018907028</v>
       </c>
       <c r="AG14">
-        <v>4.693514706708668</v>
+        <v>-16.12838793350732</v>
       </c>
       <c r="AH14">
-        <v>4.693514706708668</v>
+        <v>-8.784173899737169</v>
       </c>
       <c r="AI14">
-        <v>4.693514706708668</v>
+        <v>-8.818502995119548</v>
       </c>
       <c r="AJ14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AK14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AL14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AM14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AN14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AO14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AP14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AQ14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AR14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AS14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AT14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AU14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AV14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AW14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AX14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AY14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="AZ14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
       <c r="BA14">
-        <v>4.693514706708668</v>
+        <v>-8.794825048137467</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>3.967543131851237</v>
-      </c>
-      <c r="T15">
-        <v>-1.597924604640244</v>
-      </c>
-      <c r="U15">
-        <v>5.260364862099642</v>
-      </c>
-      <c r="V15">
-        <v>6.493919935864634</v>
-      </c>
-      <c r="W15">
-        <v>9.429264335267163</v>
-      </c>
-      <c r="X15">
-        <v>3.320585727896552</v>
-      </c>
-      <c r="Y15">
-        <v>5.276665321936447</v>
-      </c>
-      <c r="Z15">
-        <v>4.892602738886098</v>
-      </c>
-      <c r="AA15">
-        <v>4.957105241469595</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>4.971495141117499</v>
+        <v>4.060401000000002</v>
       </c>
       <c r="AC15">
-        <v>4.873158811425471</v>
+        <v>-5.279219603984076</v>
       </c>
       <c r="AD15">
-        <v>4.873158811425471</v>
+        <v>4.233400939301424</v>
       </c>
       <c r="AE15">
-        <v>4.873158811425471</v>
+        <v>-0.9308772335758664</v>
       </c>
       <c r="AF15">
-        <v>4.873158811425471</v>
+        <v>-11.8352240479</v>
       </c>
       <c r="AG15">
-        <v>4.873158811425471</v>
+        <v>-57.14802790903944</v>
       </c>
       <c r="AH15">
-        <v>4.873158811425471</v>
+        <v>53.94004854052483</v>
       </c>
       <c r="AI15">
-        <v>4.873158811425471</v>
+        <v>11.48742096710476</v>
       </c>
       <c r="AJ15">
-        <v>4.873158811425471</v>
+        <v>6.928818429977723</v>
       </c>
       <c r="AK15">
-        <v>4.873158811425471</v>
+        <v>5.555562147330284</v>
       </c>
       <c r="AL15">
-        <v>4.873158811425471</v>
+        <v>5.110501195359984</v>
       </c>
       <c r="AM15">
-        <v>4.873158811425471</v>
+        <v>6.067530320832093</v>
       </c>
       <c r="AN15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AO15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AP15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AQ15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AR15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AS15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AT15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AU15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AV15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AW15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AX15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AY15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="AZ15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
       <c r="BA15">
-        <v>4.873158811425471</v>
+        <v>6.095721945083143</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>5.26036486209962</v>
-      </c>
-      <c r="V16">
-        <v>6.807191759470954</v>
-      </c>
-      <c r="W16">
-        <v>11.40563592910597</v>
-      </c>
-      <c r="X16">
-        <v>-4.098213472638578</v>
-      </c>
-      <c r="Y16">
-        <v>2.51398037094428</v>
-      </c>
-      <c r="Z16">
-        <v>-2.576675125869599</v>
-      </c>
-      <c r="AA16">
-        <v>1.320842979722947</v>
-      </c>
-      <c r="AB16">
-        <v>1.782333336406405</v>
-      </c>
-      <c r="AC16">
-        <v>0.3252781783188663</v>
-      </c>
-      <c r="AD16">
-        <v>0.8049382522247184</v>
-      </c>
-      <c r="AE16">
-        <v>0.7248455917398866</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>0.862099696137153</v>
+        <v>-11.8352240479</v>
       </c>
       <c r="AG16">
-        <v>0.862099696137153</v>
+        <v>-59.72441940335442</v>
       </c>
       <c r="AH16">
-        <v>0.862099696137153</v>
+        <v>94.81620019601078</v>
       </c>
       <c r="AI16">
-        <v>0.862099696137153</v>
+        <v>19.4553817824848</v>
       </c>
       <c r="AJ16">
-        <v>0.862099696137153</v>
+        <v>7.603837152144077</v>
       </c>
       <c r="AK16">
-        <v>0.862099696137153</v>
+        <v>2.400799203920689</v>
       </c>
       <c r="AL16">
-        <v>0.862099696137153</v>
+        <v>-2.541600728425897</v>
       </c>
       <c r="AM16">
-        <v>0.862099696137153</v>
+        <v>13.67762247606108</v>
       </c>
       <c r="AN16">
-        <v>0.862099696137153</v>
+        <v>1.316649728677288</v>
       </c>
       <c r="AO16">
-        <v>0.862099696137153</v>
+        <v>4.273664635170782</v>
       </c>
       <c r="AP16">
-        <v>0.862099696137153</v>
+        <v>5.120680133083622</v>
       </c>
       <c r="AQ16">
-        <v>0.862099696137153</v>
+        <v>5.225964436448516</v>
       </c>
       <c r="AR16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AS16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AT16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AU16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AV16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AW16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AX16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AY16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="AZ16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
       <c r="BA16">
-        <v>0.862099696137153</v>
+        <v>5.588511616267167</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>-4.098213472638578</v>
-      </c>
-      <c r="Y17">
-        <v>2.754263941470558</v>
-      </c>
-      <c r="Z17">
-        <v>-3.55169094390001</v>
-      </c>
-      <c r="AA17">
-        <v>2.636028935395296</v>
-      </c>
-      <c r="AB17">
-        <v>4.060401000000002</v>
-      </c>
-      <c r="AC17">
-        <v>-4.518236404743526</v>
-      </c>
-      <c r="AD17">
-        <v>3.1919852842623</v>
-      </c>
-      <c r="AE17">
-        <v>-0.1289008616491616</v>
-      </c>
-      <c r="AF17">
-        <v>-4.477718018907028</v>
-      </c>
-      <c r="AG17">
-        <v>-16.12838793350732</v>
-      </c>
-      <c r="AH17">
-        <v>-8.784173899737169</v>
-      </c>
-      <c r="AI17">
-        <v>-8.818502995119569</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>-8.794825048137477</v>
+        <v>7.603837152144077</v>
       </c>
       <c r="AK17">
-        <v>-8.794825048137477</v>
+        <v>2.176709127206511</v>
       </c>
       <c r="AL17">
-        <v>-8.794825048137477</v>
+        <v>-3.8688443034957</v>
       </c>
       <c r="AM17">
-        <v>-8.794825048137477</v>
+        <v>20.55431402884296</v>
       </c>
       <c r="AN17">
-        <v>-8.794825048137477</v>
+        <v>-8.227322176512519</v>
       </c>
       <c r="AO17">
-        <v>-8.794825048137477</v>
+        <v>0.9017139833962018</v>
       </c>
       <c r="AP17">
-        <v>-8.794825048137477</v>
+        <v>6.76879177976033</v>
       </c>
       <c r="AQ17">
-        <v>-8.794825048137477</v>
+        <v>-0.7317253369667154</v>
       </c>
       <c r="AR17">
-        <v>-8.794825048137477</v>
+        <v>0.8562564928550342</v>
       </c>
       <c r="AS17">
-        <v>-8.794825048137477</v>
+        <v>-0.2799943257218107</v>
       </c>
       <c r="AT17">
-        <v>-8.794825048137477</v>
+        <v>-0.5532735011319123</v>
       </c>
       <c r="AU17">
-        <v>-8.794825048137477</v>
+        <v>-0.5374742517153308</v>
       </c>
       <c r="AV17">
-        <v>-8.794825048137477</v>
+        <v>-0.008466500317649839</v>
       </c>
       <c r="AW17">
-        <v>-8.794825048137477</v>
+        <v>-0.008466500317649839</v>
       </c>
       <c r="AX17">
-        <v>-8.794825048137477</v>
+        <v>-0.008466500317649839</v>
       </c>
       <c r="AY17">
-        <v>-8.794825048137477</v>
+        <v>-0.008466500317649839</v>
       </c>
       <c r="AZ17">
-        <v>-8.794825048137477</v>
+        <v>-0.008466500317649839</v>
       </c>
       <c r="BA17">
-        <v>-8.794825048137477</v>
+        <v>-0.008466500317649839</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>4.060401000000025</v>
-      </c>
-      <c r="AC18">
-        <v>-5.279219603984064</v>
-      </c>
-      <c r="AD18">
-        <v>4.233400939301446</v>
-      </c>
-      <c r="AE18">
-        <v>-0.9308772335758553</v>
-      </c>
-      <c r="AF18">
-        <v>-11.83522404790002</v>
-      </c>
-      <c r="AG18">
-        <v>-57.14802790903944</v>
-      </c>
-      <c r="AH18">
-        <v>53.94004854052488</v>
-      </c>
-      <c r="AI18">
-        <v>11.48742096710476</v>
-      </c>
-      <c r="AJ18">
-        <v>6.928818429977701</v>
-      </c>
-      <c r="AK18">
-        <v>5.555562147330262</v>
-      </c>
-      <c r="AL18">
-        <v>5.110501195359984</v>
-      </c>
-      <c r="AM18">
-        <v>6.067530320832093</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>6.095721945083143</v>
+        <v>-8.227322176512519</v>
       </c>
       <c r="AO18">
-        <v>6.095721945083143</v>
+        <v>1.152088253443084</v>
       </c>
       <c r="AP18">
-        <v>6.095721945083143</v>
+        <v>8.167007669465608</v>
       </c>
       <c r="AQ18">
-        <v>6.095721945083143</v>
+        <v>-3.774469028318805</v>
       </c>
       <c r="AR18">
-        <v>6.095721945083143</v>
+        <v>1.697198638953612</v>
       </c>
       <c r="AS18">
-        <v>6.095721945083143</v>
+        <v>-3.897546227660653</v>
       </c>
       <c r="AT18">
-        <v>6.095721945083143</v>
+        <v>-2.911323063974536</v>
       </c>
       <c r="AU18">
-        <v>6.095721945083143</v>
+        <v>-4.911273445035658</v>
       </c>
       <c r="AV18">
-        <v>6.095721945083143</v>
+        <v>-0.1644433828108638</v>
       </c>
       <c r="AW18">
-        <v>6.095721945083143</v>
+        <v>-0.9443791826375447</v>
       </c>
       <c r="AX18">
-        <v>6.095721945083143</v>
+        <v>-1.069674659641462</v>
       </c>
       <c r="AY18">
-        <v>6.095721945083143</v>
+        <v>-1.011423455352589</v>
       </c>
       <c r="AZ18">
-        <v>6.095721945083143</v>
+        <v>-1.48753958890171</v>
       </c>
       <c r="BA18">
-        <v>6.095721945083143</v>
+        <v>-1.48753958890171</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>-11.83522404790001</v>
-      </c>
-      <c r="AG19">
-        <v>-59.72441940335441</v>
-      </c>
-      <c r="AH19">
-        <v>94.81620019601078</v>
-      </c>
-      <c r="AI19">
-        <v>19.4553817824848</v>
-      </c>
-      <c r="AJ19">
-        <v>7.603837152144077</v>
-      </c>
-      <c r="AK19">
-        <v>2.400799203920689</v>
-      </c>
-      <c r="AL19">
-        <v>-2.541600728425897</v>
-      </c>
-      <c r="AM19">
-        <v>13.67762247606108</v>
-      </c>
-      <c r="AN19">
-        <v>1.316649728677288</v>
-      </c>
-      <c r="AO19">
-        <v>4.27366463517076</v>
-      </c>
-      <c r="AP19">
-        <v>5.120680133083599</v>
-      </c>
-      <c r="AQ19">
-        <v>5.225964436448516</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>5.588511616267167</v>
+        <v>1.69719863895359</v>
       </c>
       <c r="AS19">
-        <v>5.588511616267167</v>
+        <v>-4.262495551619249</v>
       </c>
       <c r="AT19">
-        <v>5.588511616267167</v>
+        <v>-2.991335045135557</v>
       </c>
       <c r="AU19">
-        <v>5.588511616267167</v>
+        <v>-6.226959158104972</v>
       </c>
       <c r="AV19">
-        <v>5.588511616267167</v>
+        <v>4.412091139052166</v>
       </c>
       <c r="AW19">
-        <v>5.588511616267167</v>
+        <v>-0.2465826728646148</v>
       </c>
       <c r="AX19">
-        <v>5.588511616267167</v>
+        <v>-5.499724587330512</v>
       </c>
       <c r="AY19">
-        <v>5.588511616267167</v>
+        <v>-6.370988076954709</v>
       </c>
       <c r="AZ19">
-        <v>5.588511616267167</v>
+        <v>0.602228449891351</v>
       </c>
       <c r="BA19">
-        <v>5.588511616267167</v>
+        <v>-2.462305621777361</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>7.603837152144099</v>
-      </c>
-      <c r="AK20">
-        <v>2.176709127206511</v>
-      </c>
-      <c r="AL20">
-        <v>-3.868844303495711</v>
-      </c>
-      <c r="AM20">
-        <v>20.55431402884298</v>
-      </c>
-      <c r="AN20">
-        <v>-8.227322176512519</v>
-      </c>
-      <c r="AO20">
-        <v>0.9017139833962018</v>
-      </c>
-      <c r="AP20">
-        <v>6.76879177976033</v>
-      </c>
-      <c r="AQ20">
-        <v>-0.7317253369667265</v>
-      </c>
-      <c r="AR20">
-        <v>0.8562564928550565</v>
-      </c>
-      <c r="AS20">
-        <v>-0.2799943257218107</v>
-      </c>
-      <c r="AT20">
-        <v>-0.5532735011319234</v>
-      </c>
-      <c r="AU20">
-        <v>-0.5374742517153308</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>-0.008466500317672043</v>
+        <v>4.412091139052166</v>
       </c>
       <c r="AW20">
-        <v>-0.008466500317672043</v>
+        <v>-0.5994234191810111</v>
       </c>
       <c r="AX20">
-        <v>-0.008466500317672043</v>
+        <v>-7.289790362399007</v>
       </c>
       <c r="AY20">
-        <v>-0.008466500317672043</v>
+        <v>-8.666940084126084</v>
       </c>
       <c r="AZ20">
-        <v>-0.008466500317672043</v>
+        <v>13.57938250040038</v>
       </c>
       <c r="BA20">
-        <v>-0.008466500317672043</v>
+        <v>0.1329973408891627</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>-8.227322176512509</v>
-      </c>
-      <c r="AO21">
-        <v>1.152088253443107</v>
-      </c>
-      <c r="AP21">
-        <v>8.167007669465587</v>
-      </c>
-      <c r="AQ21">
-        <v>-3.774469028318772</v>
-      </c>
-      <c r="AR21">
-        <v>1.69719863895359</v>
-      </c>
-      <c r="AS21">
-        <v>-3.897546227660642</v>
-      </c>
-      <c r="AT21">
-        <v>-2.911323063974547</v>
-      </c>
-      <c r="AU21">
-        <v>-4.911273445035647</v>
-      </c>
-      <c r="AV21">
-        <v>-0.1644433828108749</v>
-      </c>
-      <c r="AW21">
-        <v>-0.9443791826375447</v>
-      </c>
-      <c r="AX21">
-        <v>-1.069674659641462</v>
-      </c>
-      <c r="AY21">
-        <v>-1.011423455352578</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>-1.487539588901698</v>
+        <v>13.57938250040034</v>
       </c>
       <c r="BA21">
-        <v>-1.487539588901698</v>
+        <v>-0.5038811296323442</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>1.69719863895359</v>
-      </c>
-      <c r="AS22">
-        <v>-4.262495551619228</v>
-      </c>
-      <c r="AT22">
-        <v>-2.991335045135557</v>
-      </c>
-      <c r="AU22">
-        <v>-6.226959158104961</v>
-      </c>
-      <c r="AV22">
-        <v>4.412091139052166</v>
-      </c>
-      <c r="AW22">
-        <v>-0.2465826728646037</v>
-      </c>
-      <c r="AX22">
-        <v>-5.499724587330523</v>
-      </c>
-      <c r="AY22">
-        <v>-6.370988076954709</v>
-      </c>
-      <c r="AZ22">
-        <v>0.602228449891351</v>
-      </c>
-      <c r="BA22">
-        <v>-2.462305621777361</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>4.412091139052166</v>
-      </c>
-      <c r="AW23">
-        <v>-0.5994234191810222</v>
-      </c>
-      <c r="AX23">
-        <v>-7.289790362399041</v>
-      </c>
-      <c r="AY23">
-        <v>-8.666940084126063</v>
-      </c>
-      <c r="AZ23">
-        <v>13.57938250040038</v>
-      </c>
-      <c r="BA23">
-        <v>0.1329973408891849</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>13.57938250040036</v>
-      </c>
-      <c r="BA24">
-        <v>-0.5038811296323331</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_EXPORT_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_EXPORT_AVERAGE_1_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -698,8 +701,11 @@
       <c r="BA3">
         <v>-14.1223525803845</v>
       </c>
+      <c r="BB3">
+        <v>-14.1223525803845</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -856,8 +862,11 @@
       <c r="BA4">
         <v>7.235571181590705</v>
       </c>
+      <c r="BB4">
+        <v>7.235571181590705</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -1008,8 +1017,11 @@
       <c r="BA5">
         <v>9.488155060723313</v>
       </c>
+      <c r="BB5">
+        <v>9.488155060723313</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1154,8 +1166,11 @@
       <c r="BA6">
         <v>4.445724792911898</v>
       </c>
+      <c r="BB6">
+        <v>4.445724792911898</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1294,8 +1309,11 @@
       <c r="BA7">
         <v>1.101453765199745</v>
       </c>
+      <c r="BB7">
+        <v>1.101453765199745</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1428,8 +1446,11 @@
       <c r="BA8">
         <v>3.917168917088798</v>
       </c>
+      <c r="BB8">
+        <v>3.917168917088798</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1556,8 +1577,11 @@
       <c r="BA9">
         <v>4.449305425651406</v>
       </c>
+      <c r="BB9">
+        <v>4.449305425651406</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1678,8 +1702,11 @@
       <c r="BA10">
         <v>1.92981802270098</v>
       </c>
+      <c r="BB10">
+        <v>1.92981802270098</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1794,8 +1821,11 @@
       <c r="BA11">
         <v>4.693514706708668</v>
       </c>
+      <c r="BB11">
+        <v>4.693514706708668</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1904,8 +1934,11 @@
       <c r="BA12">
         <v>4.873158811425493</v>
       </c>
+      <c r="BB12">
+        <v>4.873158811425493</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -2008,8 +2041,11 @@
       <c r="BA13">
         <v>0.862099696137153</v>
       </c>
+      <c r="BB13">
+        <v>0.862099696137153</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2103,8 +2139,11 @@
       <c r="BA14">
         <v>-8.794825048137467</v>
       </c>
+      <c r="BB14">
+        <v>-8.794825048137467</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2186,8 +2225,11 @@
       <c r="BA15">
         <v>6.095721945083143</v>
       </c>
+      <c r="BB15">
+        <v>6.095721945083143</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2257,8 +2299,11 @@
       <c r="BA16">
         <v>5.588511616267167</v>
       </c>
+      <c r="BB16">
+        <v>5.588511616267167</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2316,8 +2361,11 @@
       <c r="BA17">
         <v>-0.008466500317649839</v>
       </c>
+      <c r="BB17">
+        <v>-0.008466500317649839</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2363,8 +2411,11 @@
       <c r="BA18">
         <v>-1.48753958890171</v>
       </c>
+      <c r="BB18">
+        <v>-1.48753958890171</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2398,8 +2449,11 @@
       <c r="BA19">
         <v>-2.462305621777361</v>
       </c>
+      <c r="BB19">
+        <v>-2.451276118722334</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2421,8 +2475,11 @@
       <c r="BA20">
         <v>0.1329973408891627</v>
       </c>
+      <c r="BB20">
+        <v>-1.596682557877005</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2432,8 +2489,11 @@
       <c r="BA21">
         <v>-0.5038811296323442</v>
       </c>
+      <c r="BB21">
+        <v>-2.847551894053546</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
